--- a/mySystem/mySystem/xls/LDPE/QB-PA-PP-03-R02A 产品热合强度检验记录.xlsx
+++ b/mySystem/mySystem/xls/LDPE/QB-PA-PP-03-R02A 产品热合强度检验记录.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCXFD\mySystem\mySystem\xls\CSBag\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SCXFD\mySystem\mySystem\xls\LDPE\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1520,16 +1520,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V17"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="22.625" style="6" customWidth="1"/>
-    <col min="2" max="2" width="17" style="22" customWidth="1"/>
-    <col min="3" max="3" width="14.125" style="22" customWidth="1"/>
-    <col min="4" max="4" width="11.25" style="22" customWidth="1"/>
+    <col min="2" max="3" width="16.5" style="22" customWidth="1"/>
+    <col min="4" max="4" width="9.875" style="22" customWidth="1"/>
     <col min="5" max="5" width="3.5" style="22" customWidth="1"/>
     <col min="6" max="6" width="3.625" style="22" customWidth="1"/>
     <col min="7" max="12" width="5.125" style="22" customWidth="1"/>
@@ -2000,16 +1999,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A17:F17"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G17:Q17"/>
     <mergeCell ref="A2:P2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="G3:O3"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="M16:O16"/>
     <mergeCell ref="P16:Q16"/>
-    <mergeCell ref="A17:F17"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G17:Q17"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
